--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2752503.383628999</v>
+        <v>2749639.50601623</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8894610.688226489</v>
+        <v>8894610.688226487</v>
       </c>
     </row>
     <row r="11">
@@ -671,16 +671,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.92112911249623</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>7.808007761517025</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="U2" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,65 +735,65 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,50 +820,50 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="E4" t="n">
-        <v>12.44627538834367</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17.44799951871617</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="X4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.93991247395533</v>
+        <v>29.89427490705985</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.0180752910075</v>
+        <v>18.73217250539946</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G5" t="n">
-        <v>38.48106384277808</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="V6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>33.89412103271894</v>
-      </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,70 +1054,70 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="E7" t="n">
+      <c r="W7" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="X7" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>18.96187038700693</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>83.26567494744238</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933331</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589334995</v>
+        <v>52.26183589334985</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.6116212999462</v>
       </c>
       <c r="T8" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>106.3063634540552</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.240555821128</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.990321915122881</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="X9" t="n">
-        <v>165.8541850995501</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.91302503951966</v>
+        <v>126.6349107710148</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348804</v>
+        <v>27.79734426348798</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833815</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.9987150475861</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880075</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>177.696569780335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>103.8784673763408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4774956074566125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>120.7871326503972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>111.5512144998722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991449</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="C2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="D2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="E2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96592952857138</v>
+        <v>52.36179287446866</v>
       </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J2" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>34.95810984817397</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="N2" t="n">
         <v>102.1591365466055</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4358,22 +4358,22 @@
         <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>67.19417015045701</v>
+        <v>93.59003349635429</v>
       </c>
       <c r="U2" t="n">
-        <v>32.91143027777485</v>
+        <v>93.59003349635429</v>
       </c>
       <c r="V2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="W2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="X2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.28067274328075</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>2.715192997916426</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L3" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="M3" t="n">
-        <v>36.31570634713221</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N3" t="n">
-        <v>68.55862319738975</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="O3" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P3" t="n">
         <v>135.7596498958213</v>
@@ -4431,28 +4431,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S3" t="n">
         <v>101.4769100231392</v>
       </c>
       <c r="T3" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X3" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D4" t="n">
-        <v>32.91143027777485</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4510,28 +4510,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W4" t="n">
-        <v>135.7596498958213</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X4" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.19417015045701</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.76350877132892</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="C5" t="n">
-        <v>87.76350877132892</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="D5" t="n">
-        <v>87.76350877132892</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="E5" t="n">
-        <v>87.76350877132892</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="F5" t="n">
-        <v>80.81800802212544</v>
+        <v>18.39358462996717</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H5" t="n">
         <v>3.078485107422247</v>
@@ -4568,19 +4568,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
+        <v>3.078485107422247</v>
+      </c>
+      <c r="L5" t="n">
         <v>41.17473831177255</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>79.27099151612285</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>79.27099151612285</v>
+      </c>
+      <c r="O5" t="n">
         <v>117.3672447204732</v>
-      </c>
-      <c r="N5" t="n">
-        <v>148.7634570536217</v>
-      </c>
-      <c r="O5" t="n">
-        <v>148.7634570536217</v>
       </c>
       <c r="P5" t="n">
         <v>148.7634570536217</v>
@@ -4598,19 +4598,19 @@
         <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>77.73174896241173</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="M6" t="n">
-        <v>77.73174896241173</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="N6" t="n">
-        <v>77.73174896241173</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="P6" t="n">
         <v>115.828002166762</v>
@@ -4668,22 +4668,22 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>119.687769479477</v>
       </c>
       <c r="V6" t="n">
         <v>80.81800802212544</v>
       </c>
       <c r="W6" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="X6" t="n">
         <v>41.94824656477385</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.7708509397922</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4744,31 +4744,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>134.7708509397922</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>134.7708509397922</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W7" t="n">
-        <v>134.7708509397922</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="X7" t="n">
-        <v>134.7708509397922</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.7708509397922</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.9516576785462</v>
+        <v>296.0693834419045</v>
       </c>
       <c r="C8" t="n">
-        <v>186.9516576785462</v>
+        <v>211.9626410707506</v>
       </c>
       <c r="D8" t="n">
-        <v>186.9516576785462</v>
+        <v>211.9626410707506</v>
       </c>
       <c r="E8" t="n">
-        <v>186.9516576785462</v>
+        <v>34.85980637214915</v>
       </c>
       <c r="F8" t="n">
-        <v>180.0061569293427</v>
+        <v>27.91430562294568</v>
       </c>
       <c r="G8" t="n">
-        <v>166.1183958145263</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="H8" t="n">
-        <v>166.1183958145263</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837336</v>
+        <v>132.7593507837338</v>
       </c>
       <c r="K8" t="n">
-        <v>306.3378390718327</v>
+        <v>132.7593507837338</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2671232101134</v>
+        <v>306.3378390718331</v>
       </c>
       <c r="M8" t="n">
-        <v>466.3390888241688</v>
+        <v>348.4098046858887</v>
       </c>
       <c r="N8" t="n">
-        <v>513.7056312055784</v>
+        <v>513.7056312055786</v>
       </c>
       <c r="O8" t="n">
-        <v>545.0972527718856</v>
+        <v>545.0972527718861</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718856</v>
+        <v>545.0972527718861</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064616</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808549</v>
+        <v>648.5374921808557</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808549</v>
+        <v>473.1722181405059</v>
       </c>
       <c r="T8" t="n">
-        <v>471.4346574822537</v>
+        <v>473.1722181405059</v>
       </c>
       <c r="U8" t="n">
-        <v>364.0544923771474</v>
+        <v>473.1722181405059</v>
       </c>
       <c r="V8" t="n">
-        <v>364.0544923771474</v>
+        <v>473.1722181405059</v>
       </c>
       <c r="W8" t="n">
-        <v>364.0544923771474</v>
+        <v>473.1722181405059</v>
       </c>
       <c r="X8" t="n">
-        <v>364.0544923771474</v>
+        <v>473.1722181405059</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.9516576785462</v>
+        <v>473.1722181405059</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188.4795737892562</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="C9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="D9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812922</v>
+        <v>91.04961084172305</v>
       </c>
       <c r="K9" t="n">
-        <v>14.02654450812922</v>
+        <v>264.6280991298223</v>
       </c>
       <c r="L9" t="n">
-        <v>187.6050327962283</v>
+        <v>438.2065874179216</v>
       </c>
       <c r="M9" t="n">
-        <v>361.1835210843274</v>
+        <v>506.0413993919894</v>
       </c>
       <c r="N9" t="n">
-        <v>445.2223635983132</v>
+        <v>622.1320351939715</v>
       </c>
       <c r="O9" t="n">
-        <v>499.8816909793639</v>
+        <v>676.7913625750225</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183619</v>
+        <v>701.3272254064616</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064616</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064616</v>
       </c>
       <c r="S9" t="n">
-        <v>701.3272254064609</v>
+        <v>543.508482152797</v>
       </c>
       <c r="T9" t="n">
-        <v>701.3272254064609</v>
+        <v>543.508482152797</v>
       </c>
       <c r="U9" t="n">
-        <v>701.3272254064609</v>
+        <v>366.4056474541956</v>
       </c>
       <c r="V9" t="n">
-        <v>701.3272254064609</v>
+        <v>359.3447162267987</v>
       </c>
       <c r="W9" t="n">
-        <v>701.3272254064609</v>
+        <v>182.2418815281973</v>
       </c>
       <c r="X9" t="n">
-        <v>533.7977455079255</v>
+        <v>182.2418815281973</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.6949108093243</v>
+        <v>182.2418815281973</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8824079286753</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="C10" t="n">
-        <v>458.9462250007684</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="D10" t="n">
-        <v>308.8295855884327</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="E10" t="n">
-        <v>160.9164920060396</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="F10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812922</v>
+        <v>14.02654450812923</v>
       </c>
       <c r="K10" t="n">
-        <v>72.1493105728843</v>
+        <v>72.14931057288442</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707607</v>
+        <v>202.0528747707609</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882359</v>
+        <v>349.4070924882362</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831134</v>
+        <v>498.6921726831139</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189948</v>
+        <v>620.5648112189954</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064609</v>
+        <v>701.3272254064616</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877861</v>
+        <v>673.2490998877869</v>
       </c>
       <c r="R10" t="n">
-        <v>673.2490998877861</v>
+        <v>673.2490998877869</v>
       </c>
       <c r="S10" t="n">
-        <v>673.2490998877861</v>
+        <v>496.1462651891854</v>
       </c>
       <c r="T10" t="n">
-        <v>673.2490998877861</v>
+        <v>319.043430490584</v>
       </c>
       <c r="U10" t="n">
-        <v>673.2490998877861</v>
+        <v>141.9405957919826</v>
       </c>
       <c r="V10" t="n">
-        <v>673.2490998877861</v>
+        <v>141.9405957919826</v>
       </c>
       <c r="W10" t="n">
-        <v>673.2490998877861</v>
+        <v>141.9405957919826</v>
       </c>
       <c r="X10" t="n">
-        <v>673.2490998877861</v>
+        <v>141.9405957919826</v>
       </c>
       <c r="Y10" t="n">
-        <v>673.2490998877861</v>
+        <v>141.9405957919826</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,31 +7166,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y40" t="n">
-        <v>1099.149479058937</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277359</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>215.8238677453428</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>215.8238677453428</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>240.8900576307836</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093877</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403531</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786171</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7881088975641</v>
+        <v>158.4866804736682</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0360642081934</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O3" t="n">
         <v>164.7587326673596</v>
       </c>
       <c r="P3" t="n">
-        <v>158.4618986107626</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>252.0299206180583</v>
@@ -8225,13 +8225,13 @@
         <v>244.1059827132785</v>
       </c>
       <c r="N5" t="n">
-        <v>236.0050783192468</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>242.7007091122137</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,10 +8298,10 @@
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>152.7544096882483</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
@@ -8310,7 +8310,7 @@
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>150.1458699897895</v>
       </c>
       <c r="Q6" t="n">
         <v>168.8471891366353</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>197.7656001854792</v>
+        <v>22.43379383386375</v>
       </c>
       <c r="L8" t="n">
-        <v>109.6770870840107</v>
+        <v>165.8884044070595</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>119.1204890285656</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588833185</v>
+        <v>7.786846588832958</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576871</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>3.590962737398286</v>
+        <v>178.9227690890135</v>
       </c>
       <c r="L9" t="n">
         <v>133.3698532931066</v>
       </c>
       <c r="M9" t="n">
-        <v>106.8117942565974</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>32.37554877575359</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.364831623797077</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744756</v>
+        <v>33.85618372286024</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-1.012564144608395e-12</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-4.321857195429865e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-3.560136339673643e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>40.32043864788574</v>
+        <v>38.13892827624208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.1389282762419</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.6341900408531</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.329716221309553</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>47.71290145456669</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>63.36835372228708</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.3544845744807</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.73700564187163</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934033</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.402600367</v>
+        <v>343539.4026003674</v>
       </c>
       <c r="E3" t="n">
         <v>1086298.016192724</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335547</v>
+        <v>8880.174459335427</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491229</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230405</v>
+        <v>34635.69127230414</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575369</v>
+        <v>248550.2087575368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>305665.7657712353</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731942</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731939</v>
+        <v>8117.312426731954</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731963</v>
+        <v>8117.312426731978</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731962</v>
       </c>
       <c r="K4" t="n">
+        <v>8117.312426731988</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731984</v>
       </c>
-      <c r="L4" t="n">
-        <v>8117.312426731962</v>
-      </c>
       <c r="M4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426731977</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731991</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731945</v>
+        <v>8117.312426731985</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685964</v>
+        <v>52713.93566685967</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207355.7483991836</v>
+        <v>207355.7483991835</v>
       </c>
       <c r="C6" t="n">
-        <v>231169.8788582941</v>
+        <v>231169.8788582942</v>
       </c>
       <c r="D6" t="n">
-        <v>-24559.64390042875</v>
+        <v>-24559.64390042872</v>
       </c>
       <c r="E6" t="n">
-        <v>-529641.9136991081</v>
+        <v>-529676.6516245432</v>
       </c>
       <c r="F6" t="n">
-        <v>556656.1024936159</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="G6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681804</v>
       </c>
       <c r="H6" t="n">
-        <v>556656.1024936162</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="I6" t="n">
-        <v>556656.1024936163</v>
+        <v>556621.3645681806</v>
       </c>
       <c r="J6" t="n">
-        <v>547775.9280342808</v>
+        <v>547741.1901088454</v>
       </c>
       <c r="K6" t="n">
-        <v>555487.3554481247</v>
+        <v>555452.6175226887</v>
       </c>
       <c r="L6" t="n">
-        <v>522020.4112213122</v>
+        <v>521985.6732958757</v>
       </c>
       <c r="M6" t="n">
-        <v>308105.8937360793</v>
+        <v>308071.1558106433</v>
       </c>
       <c r="N6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681799</v>
       </c>
       <c r="O6" t="n">
-        <v>556656.1024936161</v>
+        <v>556621.3645681803</v>
       </c>
       <c r="P6" t="n">
-        <v>556656.1024936158</v>
+        <v>556621.3645681802</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523599</v>
+        <v>386.5211853523603</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,28 +26793,28 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332346</v>
+        <v>351.499924633235</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893138</v>
+        <v>981.4543149893136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088372</v>
+        <v>136.8507425088373</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480331</v>
+        <v>997.376481748033</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395525</v>
+        <v>33.93991247395479</v>
       </c>
       <c r="K4" t="n">
         <v>4.541151368822966</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088369</v>
+        <v>136.8507425088373</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480331</v>
+        <v>997.376481748033</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088372</v>
+        <v>136.8507425088373</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480331</v>
+        <v>997.376481748033</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.2890922913351</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>304.5874090169231</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>188.7509478129442</v>
+        <v>214.8828525253825</v>
       </c>
       <c r="U2" t="n">
-        <v>217.3983391449769</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>293.8123459961796</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.6389087428075</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>138.7685865143604</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,7 +27476,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>53.75242741433431</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.14454955308224</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>136.8238088593301</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>166.0252945351195</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>191.9982129962619</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8787102964176</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>114.675560544257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>133.9876872582255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27591,19 +27591,19 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>252.3768532711237</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.5830858626357</v>
       </c>
       <c r="X4" t="n">
-        <v>191.7697429150818</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.6447408781395</v>
+        <v>188.690378445035</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.7157663724731</v>
+        <v>364.0016691580811</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>368.3949818989333</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>376.6808846845414</v>
-      </c>
       <c r="H5" t="n">
-        <v>299.5518830515227</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27670,7 +27670,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>212.8533259460332</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.99978005760148</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27749,16 +27749,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>192.0423052094749</v>
       </c>
       <c r="V6" t="n">
-        <v>198.9064661167063</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>213.2139193181415</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>128.7657572558497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.1344091754343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.9528988037911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.91196249609953</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>135.9727348210013</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27831,13 +27831,13 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>213.6565794810499</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>252.6288773038721</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.2285915462591</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>207.4020353118652</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>282.0072168235652</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>206.5985637206464</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.570932793333</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999462</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>40.96204727732032</v>
+        <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
-        <v>144.914981132864</v>
+        <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>210.9061323044384</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27950,7 @@
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767899</v>
+        <v>60.77218657767895</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671852</v>
+        <v>48.53902377671847</v>
       </c>
       <c r="S9" t="n">
-        <v>156.240555821128</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>196.8136629463422</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8866856868212</v>
+        <v>50.55487933520578</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.8102652343024</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>76.36317680930421</v>
       </c>
       <c r="X9" t="n">
-        <v>39.9188001039274</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.35088942568913</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.9189551424176</v>
+        <v>53.19706941092248</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.2939739422496</v>
       </c>
       <c r="H10" t="n">
-        <v>156.0301607160526</v>
+        <v>156.0301607160525</v>
       </c>
       <c r="I10" t="n">
         <v>134.489621137986</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068421</v>
+        <v>44.08089719068415</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>145.9534932992552</v>
       </c>
       <c r="S10" t="n">
-        <v>211.8696945563088</v>
+        <v>36.53788820469335</v>
       </c>
       <c r="T10" t="n">
-        <v>224.9674753772059</v>
+        <v>49.63566902559053</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2810108792431</v>
+        <v>110.9492045276277</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466772</v>
+        <v>1.553854011466774</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493409</v>
+        <v>15.9134073949341</v>
       </c>
       <c r="I8" t="n">
-        <v>59.9049567770728</v>
+        <v>59.90495677707286</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057281</v>
+        <v>131.8814169057282</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111166</v>
+        <v>197.6560572111168</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145429</v>
+        <v>245.2098169145431</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909651</v>
+        <v>272.8431681909653</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010451</v>
+        <v>277.2580559010453</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745223</v>
+        <v>261.8069200745226</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664364</v>
+        <v>223.4461491664366</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807825</v>
+        <v>167.7987523807827</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779973</v>
+        <v>97.60728204779983</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629911</v>
+        <v>35.40844828629915</v>
       </c>
       <c r="T8" t="n">
-        <v>6.8019959351958</v>
+        <v>6.801995935195806</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173418</v>
+        <v>0.1243083209173419</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352648</v>
+        <v>0.8313851911352655</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753743</v>
+        <v>8.02943066175375</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373609</v>
+        <v>28.62444627373612</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089799</v>
+        <v>78.54766843089807</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369607</v>
+        <v>134.2504762369608</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383828</v>
+        <v>180.516332838383</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170361</v>
+        <v>210.6540460170363</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944301</v>
+        <v>216.2294317944303</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434855</v>
+        <v>197.8076862434858</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440665</v>
+        <v>158.7581072440667</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631612</v>
+        <v>106.1255903631613</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592462</v>
+        <v>51.61881037592467</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270984</v>
+        <v>15.44261528270986</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479421</v>
+        <v>3.351065748479424</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363586</v>
+        <v>0.05469639415363592</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091736</v>
+        <v>0.6970054162091742</v>
       </c>
       <c r="H10" t="n">
-        <v>6.19701179138702</v>
+        <v>6.197011791387027</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927224</v>
+        <v>20.96085378927226</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598856</v>
+        <v>49.27828292598862</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775669</v>
+        <v>80.97935653775677</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516802</v>
+        <v>103.6256961516803</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972253</v>
+        <v>109.2587671972254</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186275</v>
+        <v>106.6608379186276</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472939</v>
+        <v>98.51854737472951</v>
       </c>
       <c r="P10" t="n">
-        <v>84.2996368840622</v>
+        <v>84.29963688406228</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820634</v>
+        <v>58.36469898820641</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791428</v>
+        <v>31.33989807791432</v>
       </c>
       <c r="S10" t="n">
-        <v>12.1469034806635</v>
+        <v>12.14690348066351</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075559</v>
+        <v>2.978114051075562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777314</v>
+        <v>0.03801847724777319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>476.064808938546</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951675</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.56860287904802</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
         <v>33.93991247395533</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>32.56860287904804</v>
+      </c>
+      <c r="O2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
+        <v>28.63848405005938</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>32.56860287904802</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="O3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="P3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>38.48106384277808</v>
@@ -34945,13 +34945,13 @@
         <v>38.48106384277808</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="P5" t="n">
         <v>31.71334579105919</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35018,19 +35018,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>30.55594983196189</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
         <v>38.48106384277808</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511156</v>
+        <v>119.9321275511157</v>
       </c>
       <c r="K8" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>119.1204890285663</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496369233</v>
+        <v>42.49693496369261</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445414</v>
+        <v>166.9654813330201</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283561</v>
+        <v>31.7087086528359</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662377</v>
+        <v>157.8080531662379</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>77.80107710464021</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="L9" t="n">
-        <v>175.3318063516152</v>
+        <v>175.3318063516154</v>
       </c>
       <c r="M9" t="n">
-        <v>175.3318063516152</v>
+        <v>68.52001209501802</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109679</v>
+        <v>117.2632684868506</v>
       </c>
       <c r="O9" t="n">
-        <v>55.2114417990411</v>
+        <v>55.21144179904132</v>
       </c>
       <c r="P9" t="n">
-        <v>28.14853145353331</v>
+        <v>24.78369982973641</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516152</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187383</v>
+        <v>58.70986471187392</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119964</v>
+        <v>131.2157214119965</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590659</v>
+        <v>148.842644159066</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978561</v>
+        <v>150.7930102978562</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887691</v>
+        <v>123.1036752887692</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895568</v>
+        <v>81.57819614895577</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>337.5104291586719</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>79.32561221529332</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394655</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902399</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
